--- a/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Asep Ridwan Subiana/Asep Ridwan Subiana.xlsx
+++ b/PROJECTS MACRO/Profit Loss/07-02-2024/Macro/WO BUDGETING/Asep Ridwan Subiana/Asep Ridwan Subiana.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\07-02-2024\Macro\WO BUDGETING\Asep Ridwan Subiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5419B7F8-E1B4-4E95-8BA9-FBB1900E2CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1179ED28-B7E5-4D4E-BAAD-5F6232B0016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9ACB3865-5BD3-433F-B302-1F78E3282986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{DEBFC660-2696-499F-8A15-A7373B0DA19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Asep Ridwan Subiana" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="60">
   <si>
     <t>Periode : February-2024</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>OVER</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>MAJA-2</t>
@@ -819,8 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEFEE64-DE67-46EB-AD64-4A8E02D49931}">
-  <sheetPr codeName="Sheet15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7A33A0-1E6F-45B9-8161-6BD51A5D21FC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1032,7 +1034,9 @@
       <c r="P6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -1045,10 +1049,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="34">
@@ -1073,31 +1077,33 @@
         <v>0.18410032967214235</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="33">
         <v>1</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27">
@@ -1122,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="26">
         <v>1</v>
@@ -1130,23 +1136,25 @@
       <c r="P8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="34">
@@ -1171,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" s="33">
         <v>1</v>
@@ -1179,23 +1187,25 @@
       <c r="P9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="38"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27">
@@ -1220,31 +1230,33 @@
         <v>0.27642848600601844</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" s="26">
         <v>1</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34">
@@ -1269,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" s="33">
         <v>1</v>
@@ -1277,23 +1289,25 @@
       <c r="P11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27">
@@ -1318,31 +1332,33 @@
         <v>0.27844972352548891</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O12" s="26">
         <v>1</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34">
@@ -1367,31 +1383,33 @@
         <v>1.1717480382995358E-2</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" s="33">
         <v>1</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27">
@@ -1416,31 +1434,33 @@
         <v>2.3288691703526009E-2</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" s="26">
         <v>1</v>
       </c>
       <c r="P14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34">
@@ -1465,31 +1485,33 @@
         <v>4.5822572055396235E-2</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="33">
         <v>1</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27">
@@ -1514,31 +1536,33 @@
         <v>1.887028379139459E-2</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="26">
         <v>1</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34">
@@ -1563,31 +1587,33 @@
         <v>0.12689754400872497</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="33">
         <v>1</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27">
@@ -1612,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="26">
         <v>1</v>
@@ -1620,23 +1646,25 @@
       <c r="P18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="34">
@@ -1659,15 +1687,17 @@
         <v>1.8410032967214236E-2</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="33">
         <v>1</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P6:P19">
@@ -1681,20 +1711,20 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{CBC33348-6A23-456B-A51C-779BD38648BF}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{9706CF57-ADEA-4000-B4A4-FDB4043584CD}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{658EC953-0AA5-4DEA-B1B9-DA881CDA429F}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{19C04F02-30FE-4F74-8914-B9FCD66BCB69}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{D4A3B47A-5B60-45C5-9B2C-F4119D084362}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{CC95B5BC-6331-4AB1-B35D-3A3214931B9A}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{16E82709-1B81-4D56-84CF-055173FE4A3B}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{A2BE10D6-7531-4D9C-BCF5-FA0FF78539ED}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{AB59FA33-9606-42C2-AC1B-54D22ADB6A13}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{5C01EB7E-A94C-4745-AF2B-ED3E8C29444D}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{A8305844-17D7-4CCA-A6B6-7B599A75B3D4}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{3201A5FA-30C8-471C-96F3-6D97743BBFB0}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{A91D7F83-CE5E-4A50-A18E-873940D58085}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{79140144-E7D2-4D43-A603-FB2767F398CF}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{367074FC-E870-442A-9435-85EE79313013}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{E8C3675E-E6EE-4EF0-B76F-B93F391DC768}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{B85C568A-112F-4640-B100-FB8A94586804}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{5301A404-5960-4BE0-A180-C5DC4C15E511}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{A3C96C41-615D-4353-8C77-8AC0738692F2}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{9B52C537-00F7-45E8-BF6F-629A53E10AA5}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{98C382B0-0B80-49CE-832E-A96403DEC583}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{9FC25899-885F-4DC2-9020-E4EDE1151E18}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{7A3EB4FD-E1A0-4D34-91A5-1C5462D48FD5}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{0FEF5926-14F4-4E23-84FA-EBEF0965ADAF}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{8DAC336B-EA38-477A-8829-A40D30FAF7B0}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{B69C0EFF-CF36-4BFA-9355-4143DE9F8AB9}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{BDA730F6-32DF-43AF-9E18-B23D85C9456C}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{AFF80BD3-A864-40C5-BD3D-5D0BB5ED5AA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
